--- a/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -475,11 +475,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,11 +493,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,43 +506,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -569,70 +569,70 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -659,16 +659,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -677,7 +677,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -686,34 +686,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -722,25 +722,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -749,70 +749,70 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -821,16 +821,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -839,16 +839,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -857,7 +857,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -875,7 +875,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,52 +884,52 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -943,11 +943,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -983,16 +983,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1001,61 +1001,61 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1064,97 +1064,97 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1163,15 +1163,69 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Group E</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
+++ b/data/out/wiki/men/uefa/eu/active_suspense_eu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Belgium</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -79,31 +82,34 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Russia</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Russia</t>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>Serbia</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
   </si>
   <si>
     <t>Group 1</t>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -527,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -541,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -549,16 +555,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -569,35 +575,35 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -608,13 +614,13 @@
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -622,10 +628,10 @@
         <v>1992</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -636,35 +642,35 @@
         <v>1992</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -678,13 +684,13 @@
         <v>1996</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -692,13 +698,13 @@
         <v>1996</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -712,7 +718,7 @@
         <v>34</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -720,24 +726,24 @@
         <v>1996</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -745,10 +751,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -762,13 +768,13 @@
         <v>2000</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -776,10 +782,10 @@
         <v>2000</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -787,30 +793,30 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -818,13 +824,13 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -832,13 +838,13 @@
         <v>2004</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -846,13 +852,13 @@
         <v>2004</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -860,13 +866,13 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -874,52 +880,52 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -927,27 +933,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -955,16 +961,16 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -972,7 +978,7 @@
         <v>2012</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -983,13 +989,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -997,27 +1003,27 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1025,41 +1031,41 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1067,13 +1073,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1081,27 +1087,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1109,15 +1115,169 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2016</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>2024</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45">
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
         <v>2</v>
       </c>
     </row>
